--- a/subjects/resources/2/andan/LR4-2.xlsx
+++ b/subjects/resources/2/andan/LR4-2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\2 курс\анализ данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -889,6 +889,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85E8-447A-8D74-9B7893D97DF5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
@@ -1066,7 +1071,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1111,7 +1116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1283,6 +1287,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6786-4306-A11E-7ECE7507F337}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1470,7 +1479,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1515,7 +1524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1687,6 +1695,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C83-47F8-AF59-2EFF9B7185B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1876,7 +1889,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1921,7 +1934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2091,6 +2103,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3B9-4B6C-8C0B-6A0E9B4821C8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2280,7 +2297,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2325,7 +2342,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2464,6 +2480,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A740-4F33-97E6-A4CC3A38B309}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2640,7 +2661,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2685,7 +2706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2845,6 +2865,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B8A-42E1-8516-ACBFCE60CD6B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3032,7 +3057,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3077,7 +3102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3237,6 +3261,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-157B-42E4-A344-E2D236E0941D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3424,7 +3453,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3480,7 +3509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3638,6 +3666,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D3A-4F11-AB67-112E3199F8F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3825,7 +3858,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3870,7 +3903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4009,6 +4041,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1FC-49D3-ABFF-A352CC676A22}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4185,7 +4222,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4230,7 +4267,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4390,6 +4426,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D63-45CE-ABCE-BB76E239DFD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4577,7 +4618,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4622,7 +4663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4782,6 +4822,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E39-4C42-8749-68B4796D0D03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4969,7 +5014,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5197,6 +5242,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE24-42EF-A101-285CE85C38D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5384,7 +5434,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5440,7 +5490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5598,6 +5647,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5C0-4118-A786-C01493261773}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5785,7 +5839,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6002,6 +6056,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64CD-4118-853E-1113E14023A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6191,7 +6250,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6241,7 +6300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6411,6 +6469,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4812-4097-B897-59336CDE326D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6600,7 +6663,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6645,7 +6708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6784,6 +6846,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3263-4C57-9927-493DEC88A247}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6960,7 +7027,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7005,7 +7072,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7165,6 +7231,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66D0-432B-ACFC-CD0FA1B3ACD7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7341,7 +7412,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7386,7 +7457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7546,6 +7616,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5B8-4689-BC0D-7AD8C1427FCA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7733,7 +7808,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7778,7 +7853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7936,6 +8010,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37BB-4E38-ACC3-D402AFFFE8A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8123,7 +8202,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8168,7 +8247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8319,6 +8397,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C3C-4BD3-B6F9-FA0F1E6E8A0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -20171,7 +20254,7 @@
   <dimension ref="A1:CW179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
